--- a/6.Process/BOM/AS5600.xlsx
+++ b/6.Process/BOM/AS5600.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B485FDC-30A7-45E5-BACA-2F5E0E200CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Cubli_Mini\6.Process\BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6963B003-6B8A-4D76-91EA-6A4F821241A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10755" yWindow="5490" windowWidth="19995" windowHeight="15435" xr2:uid="{2C6F35DE-A15A-4EC4-9234-CA15FC7D898E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{2C6F35DE-A15A-4EC4-9234-CA15FC7D898E}"/>
   </bookViews>
   <sheets>
     <sheet name="AS5600" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Comment</t>
   </si>
@@ -97,9 +102,6 @@
   </si>
   <si>
     <t>SOD-523_L1.2-W0.8-LS1.6-BI</t>
-  </si>
-  <si>
-    <t>0Ω (0R0) ±1%</t>
   </si>
   <si>
     <t>R1</t>
@@ -152,12 +154,107 @@
       <t>贴片电阻</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>链接</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>途径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/16204.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/107097.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-1.0-3PWT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3039043.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-1.0-7PWT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3039047.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESD5Z3.3C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/515057.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0Ω (0R0) ±1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/308197.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/26643.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS5600-ASOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.29a92e8db59EqX&amp;id=633037124155&amp;_u=m1jbj7pb2330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立创商场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>淘宝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +283,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -201,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -224,13 +330,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,9 +372,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -557,16 +699,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780EE9CD-A959-4059-A2C7-F5782D0A6C6D}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,13 +729,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -605,13 +755,19 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
+      <c r="G2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -625,10 +781,16 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
+      <c r="G3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -645,10 +807,16 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
+      <c r="G4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -665,10 +833,16 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
+      <c r="G5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
@@ -685,70 +859,104 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
+      <c r="G6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
+      <c r="G7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
       </c>
+      <c r="G8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{EBA01B42-D2D9-4716-B663-81E0D5BCA311}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{A70E9138-9006-453C-86CB-A293B4DC8DB2}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{C1CD9D60-447C-496E-A3F0-3AB0F3AC7A6A}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{17ED0582-B416-4E47-AA04-25575AABA0E7}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{53EDD8C9-B039-4BA3-8E76-6B74EA642A27}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{6B9080E1-4117-4FD9-A2FA-001C832637FA}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{2917B1CB-B704-41DD-9BA0-BFBCD13303E1}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{1B60BCC9-C9D8-4BB3-8F21-C09C36E70987}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>